--- a/桌面/产品管理/教育成长/教育成长流程额度.xlsx
+++ b/桌面/产品管理/教育成长/教育成长流程额度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FBC761-B555-459E-9D4D-3BA4C28969FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0B265-33CE-425E-826A-13CB2F11D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4840" yWindow="4840" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/桌面/产品管理/教育成长/教育成长流程额度.xlsx
+++ b/桌面/产品管理/教育成长/教育成长流程额度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE0B265-33CE-425E-826A-13CB2F11D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923C9AD-3ACF-43D0-86E3-BD53D0576D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4840" yWindow="4840" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基金额度" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="295">
   <si>
     <t>代码</t>
   </si>
@@ -967,6 +967,30 @@
   </si>
   <si>
     <t>002245.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红收益增强</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富双利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏希望债券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>001862.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>470018.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011.OF</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1608,7 +1632,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1821,14 +1845,78 @@
         <v>1000</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="4">D9-E9</f>
+        <f t="shared" ref="F9:F11" si="4">D9-E9</f>
         <v>1000</v>
       </c>
       <c r="G9" s="2">
         <v>44561</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44561</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="5">D12-E12</f>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44561</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/桌面/产品管理/教育成长/教育成长流程额度.xlsx
+++ b/桌面/产品管理/教育成长/教育成长流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923C9AD-3ACF-43D0-86E3-BD53D0576D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032826AD-7D80-4C38-880F-D928EAC3250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1736,9 +1736,12 @@
       <c r="D4" s="3">
         <v>1000</v>
       </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
       <c r="F4">
         <f t="shared" ref="F4" si="1">D4-E4</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>44561</v>
@@ -1757,9 +1760,12 @@
       <c r="D5" s="3">
         <v>1000</v>
       </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
       <c r="F5">
         <f t="shared" ref="F5" si="2">D5-E5</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>44561</v>
@@ -1802,9 +1808,12 @@
       <c r="D7" s="3">
         <v>1000</v>
       </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>44561</v>

--- a/桌面/产品管理/教育成长/教育成长流程额度.xlsx
+++ b/桌面/产品管理/教育成长/教育成长流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032826AD-7D80-4C38-880F-D928EAC3250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F8FD0-5175-46CE-9395-793DE35B8FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">股票额度!$A$1:$G$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1808,12 +1808,9 @@
       <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="E7">
-        <v>1000</v>
-      </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="2">
         <v>44561</v>

--- a/桌面/产品管理/教育成长/教育成长流程额度.xlsx
+++ b/桌面/产品管理/教育成长/教育成长流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\教育成长\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F8FD0-5175-46CE-9395-793DE35B8FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9E26D-C902-4444-8EB0-773DCF42BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">股票额度!$A$1:$G$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">基金额度!$A$1:$H$48</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1808,9 +1808,12 @@
       <c r="D7" s="3">
         <v>1000</v>
       </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>44561</v>
@@ -1916,9 +1919,12 @@
       <c r="D12" s="3">
         <v>1000</v>
       </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
       <c r="F12">
         <f t="shared" ref="F12" si="5">D12-E12</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>44561</v>
